--- a/output/과제_테스트케이스.xlsx
+++ b/output/과제_테스트케이스.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>테스트 케이스 ID</t>
   </si>
@@ -34,7 +34,7 @@
     <t>통과/실패</t>
   </si>
   <si>
-    <t>비고</t>
+    <t>케이스 작성 이유</t>
   </si>
   <si>
     <t>menu_select_0001</t>
@@ -52,18 +52,27 @@
     <t>200 응답이 와야 합니다.</t>
   </si>
   <si>
+    <t>API의 정상 동작 확인</t>
+  </si>
+  <si>
     <t>menu_select_0002</t>
   </si>
   <si>
     <t>[메뉴선택][Negative] 재료부족</t>
   </si>
   <si>
+    <t>해당 메뉴가 재료 부족</t>
+  </si>
+  <si>
     <t>1. ```  POST/api/v1/menu/select ```  정상요청을합니다.</t>
   </si>
   <si>
     <t>400 INSUFFICIENT_INGREDIENTS 에러가 발생해야 합니다.</t>
   </si>
   <si>
+    <t>특정 에러코드의 발생상황 케이스</t>
+  </si>
+  <si>
     <t>menu_select_0003</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>400 INVALID_REQUEST 에러가 발생해야 합니다.</t>
   </si>
   <si>
+    <t>인증 우회에 대한 검토</t>
+  </si>
+  <si>
     <t>menu_select_0004</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  유효하지 않은 메뉴ID정보로 요청합니다.</t>
   </si>
   <si>
+    <t>존재하지 않는 메뉴ID로 요청시 실패확인</t>
+  </si>
+  <si>
     <t>menu_select_0005</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  수량 0으로 요청을 합니다</t>
   </si>
   <si>
+    <t>경계값분석 케이스로 불가능한 케이스에 대한 테스트</t>
+  </si>
+  <si>
     <t>menu_select_0006</t>
   </si>
   <si>
@@ -103,6 +121,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  수량을 -1로 요청합니다.</t>
   </si>
   <si>
+    <t>수량이 음수인 유효하지 않은 값에 대한 테스트</t>
+  </si>
+  <si>
     <t>menu_select_0007</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  수량을 2147483648로 요청합니다.</t>
   </si>
   <si>
+    <t>java int최대치 이상으로 테스트시 overflow확인</t>
+  </si>
+  <si>
     <t>menu_select_0008</t>
   </si>
   <si>
@@ -121,6 +145,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  존재하지 않은 Shop_id로 요청합니다.</t>
   </si>
   <si>
+    <t>shop_id가 존재하지 않은 경우 에러 확인</t>
+  </si>
+  <si>
     <t>menu_select_0009</t>
   </si>
   <si>
@@ -130,6 +157,9 @@
     <t>1. ```  POST/api/v1/menu/select ```  존재하지 않은 member_no정보로 요청합니다.</t>
   </si>
   <si>
+    <t>memberNO가 존재하지 않은 경우 에러 확인</t>
+  </si>
+  <si>
     <t>menu_select_0010</t>
   </si>
   <si>
@@ -137,6 +167,9 @@
   </si>
   <si>
     <t>1. ```  POST/api/v1/menu/select ``` 메뉴ID정보를 빼고 요청합니다.</t>
+  </si>
+  <si>
+    <t>API의 스펙에 필수값 검증</t>
   </si>
   <si>
     <t>menu_select_0011</t>
@@ -179,6 +212,9 @@
     <t>200 정상 주문 생성이 되어야 합니다.</t>
   </si>
   <si>
+    <t>API성공 케이스 확인</t>
+  </si>
+  <si>
     <t>order_create_0002</t>
   </si>
   <si>
@@ -192,6 +228,9 @@
     <t>400 INVALID_RESERVATION 에러가 발생해야 합니다.</t>
   </si>
   <si>
+    <t>메뉴 예약 멤버와 주문 멤버가 다른 경우 실패 확인</t>
+  </si>
+  <si>
     <t>order_create_0003</t>
   </si>
   <si>
@@ -202,6 +241,9 @@
 2.```  POST/api/v1/order/create ``` 응답받지 않은 reservationid를 사용하여 요청</t>
   </si>
   <si>
+    <t>예약 ID가 메뉴 예약으로 생성된 ID가 아닌 경우에 대한 확인</t>
+  </si>
+  <si>
     <t>order_create_0004</t>
   </si>
   <si>
@@ -212,6 +254,9 @@
 2.```  POST/api/v1/order/create ``` Authorization을 헤더에서 제거하고 요청합니다.</t>
   </si>
   <si>
+    <t>인증정보가 없을경우 API동작 확인</t>
+  </si>
+  <si>
     <t>order_create_0005</t>
   </si>
   <si>
@@ -235,7 +280,7 @@
     <t>order_create_0007</t>
   </si>
   <si>
-    <t>[주문생성][Negative] 예약후 5분 초기로 실패</t>
+    <t>[주문생성][Negative] 예약후 5분 초과로 실패</t>
   </si>
   <si>
     <t>"1. ```  POST/api/v1/menu/select ``` 정상적인 데이터 요청을합니다.
@@ -243,6 +288,9 @@
   </si>
   <si>
     <t>400 RESERVATION_EXPIRED에러가 발생해야 합니다.</t>
+  </si>
+  <si>
+    <t>5분 초과에러코드에 대한 확인</t>
   </si>
   <si>
     <t>order_create_0008</t>
@@ -257,6 +305,9 @@
   </si>
   <si>
     <t>500 INGREDIENTS_EXHAUSTED 에러가 발생해야 합니다.</t>
+  </si>
+  <si>
+    <t>예약후 재료 소진으로 인한 에러 케이스 확인</t>
   </si>
 </sst>
 </file>
@@ -438,7 +489,7 @@
     <tableColumn name="예상 결과" id="5"/>
     <tableColumn name="실제 결과" id="6"/>
     <tableColumn name="통과/실패" id="7"/>
-    <tableColumn name="비고" id="8"/>
+    <tableColumn name="케이스 작성 이유" id="8"/>
   </tableColumns>
   <tableStyleInfo name="테스트케이스-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -654,6 +705,7 @@
     <col customWidth="1" min="4" max="4" width="40.38"/>
     <col customWidth="1" min="5" max="5" width="54.0"/>
     <col hidden="1" min="6" max="7" width="12.63"/>
+    <col customWidth="1" min="8" max="8" width="45.75"/>
     <col customWidth="1" min="14" max="14" width="17.5"/>
     <col customWidth="1" min="15" max="19" width="19.0"/>
     <col customWidth="1" min="20" max="21" width="12.5"/>
@@ -704,407 +756,449 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/output/과제_테스트케이스.xlsx
+++ b/output/과제_테스트케이스.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>테스트 케이스 ID</t>
   </si>
@@ -197,6 +197,36 @@
   </si>
   <si>
     <t>1. ```  POST/api/v1/menu/select ```  member_no정보를 빼고 요청합니다.</t>
+  </si>
+  <si>
+    <t>menu_select_0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[메뉴선택][Negative] 탈퇴한 member_no로 실패 </t>
+  </si>
+  <si>
+    <t>탈퇴한 회원</t>
+  </si>
+  <si>
+    <t>1. ```  POST/api/v1/menu/select ```  탈퇴한 member_no정보로 요청합니다.</t>
+  </si>
+  <si>
+    <t>탈퇴한 회원 검증</t>
+  </si>
+  <si>
+    <t>menu_select_0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[메뉴선택][Negative] 비활성화된 Shop_id로 실패 </t>
+  </si>
+  <si>
+    <t>Shop_id비활성화</t>
+  </si>
+  <si>
+    <t>1. ```  POST/api/v1/menu/select ```  비활성화된 shopId정보로 요청합니다.</t>
+  </si>
+  <si>
+    <t>오픈전등 비활성화된 상점에 대한 메뉴 등록 실패 검증</t>
   </si>
   <si>
     <t>order_create_0001</t>
@@ -480,7 +510,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H22" displayName="표1" name="표1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H24" displayName="표1" name="표1" id="1">
   <tableColumns count="8">
     <tableColumn name="테스트 케이스 ID" id="1"/>
     <tableColumn name="테스트 케이스 이름" id="2"/>
@@ -1032,13 +1062,13 @@
         <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1054,13 +1084,13 @@
         <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1082,122 +1112,166 @@
         <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="5" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="5" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="5" t="s">
-        <v>95</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
